--- a/BTC_Transaction.xlsx
+++ b/BTC_Transaction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,127 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>hash</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lock_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ver</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tx_index</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>vin_sz</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>vout_sz</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>relayed_by</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>inputs.sequence</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>in_spent</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>in_tx_index</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>in_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>in_addr</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>in_value</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>in_n</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>in_script</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>inputs.script</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>out_spent</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>out_tx_index</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>out_type</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>out_addr</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>out_value</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>out_n</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>out_script</t>
         </is>
       </c>
     </row>
@@ -449,8 +569,96 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>utx</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>c4a0dae726c6892477765a6597cf3a36918ba5302d88e63854f9988bb33519dd</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>226</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1677464386</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>4294967295</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>bc1qxws7zz7lejjckkntggc0yvt7sqttjd0umsas7d</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>21171100</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>001433a1e10bdfcca58b5a6b4230f2317e8016b935fc</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>bc1qddv08fla39aa08f690g7hrg43jxmzc4z8jwwmw</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.01452978</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>00146b58f3a7fd897bd79d3a2bd1eb8d158c8db162a2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -463,7 +671,87 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Row(lock_time=0, ver=1, size=226, inputs=[Row(sequence=4294967295, prev_out=Row(spent=True, tx_index=0, type=0, addr='bc1qxws7zz7lejjckkntggc0yvt7sqttjd0umsas7d', value=21171100, n=0, script='001433a1e10bdfcca58b5a6b4230f2317e8016b935fc'), script='')], time=1677464386, tx_index=0, vin_sz=1, hash='c4a0dae726c6892477765a6597cf3a36918ba5302d88e63854f9988bb33519dd', vout_sz=2, relayed_by='0.0.0.0', out=[Row(spent=False, tx_index=0, type=0, addr='bc1qddv08fla39aa08f690g7hrg43jxmzc4z8jwwmw', value=1452978, n=0, script='00146b58f3a7fd897bd79d3a2bd1eb8d158c8db162a2'), Row(spent=False, tx_index=0, type=0, addr='1D6U9ziBDC7T8DsFTUBYQ6sg1yW2D4i2qX', value=19716700, n=1, script='76a91484aa41d3d723262350ca19aeec8a490daea2162d88ac')])</t>
+          <t>c4a0dae726c6892477765a6597cf3a36918ba5302d88e63854f9988bb33519dd</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>226</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1677464386</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>4294967295</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>bc1qxws7zz7lejjckkntggc0yvt7sqttjd0umsas7d</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>21171100</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>001433a1e10bdfcca58b5a6b4230f2317e8016b935fc</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>1D6U9ziBDC7T8DsFTUBYQ6sg1yW2D4i2qX</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.197167</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>76a91484aa41d3d723262350ca19aeec8a490daea2162d88ac</t>
         </is>
       </c>
     </row>
@@ -478,7 +766,91 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Row(lock_time=0, ver=1, size=224, inputs=[Row(sequence=4294967295, prev_out=Row(spent=True, tx_index=0, type=0, addr='1HZ2DXkXfJ8tcb9mpKENDWdaf7RSZXAmRc', value=1653915, n=1, script='76a914b59056a259aca92017d6ad7c10add33e73b5e5f588ac'), script='483045022100affb78bb2f245ca3f8839d144aa2f5f5fb71b3cf11585946bc593ba95d8af91a02203a6dd718a0dc664e5c2bda7fa70efaa2f23085bae1fed3b0b89809fb00f61b5c012102ff030ff186acd820cfa08fbec96cf56fa2980c8dd38ba6719599367cf13910d1')], time=1677464387, tx_index=0, vin_sz=1, hash='8beadc7ad67f03281c0588ed726c9e59a6da0eea0411d8e38cf0cb9f75477772', vout_sz=2, relayed_by='0.0.0.0', out=[Row(spent=False, tx_index=0, type=0, addr='32fX1K1VEC9YCj9yZbhbCbyAoWJX98gBiQ', value=424184, n=0, script='a9140aaf920980e87f7142a2d38476c69bbf9af4e8c187'), Row(spent=False, tx_index=0, type=0, addr='1ASianzRhTUkHr4pcbsP3as53yUYv8atxy', value=1222787, n=1, script='76a91467963e16d45f1ef854558fedcdd92c0d976a652b88ac')])</t>
+          <t>8beadc7ad67f03281c0588ed726c9e59a6da0eea0411d8e38cf0cb9f75477772</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>224</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1677464387</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>4294967295</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1HZ2DXkXfJ8tcb9mpKENDWdaf7RSZXAmRc</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>1653915</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>76a914b59056a259aca92017d6ad7c10add33e73b5e5f588ac</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>483045022100affb78bb2f245ca3f8839d144aa2f5f5fb71b3cf11585946bc593ba95d8af91a02203a6dd718a0dc664e5c2bda7fa70efaa2f23085bae1fed3b0b89809fb00f61b5c012102ff030ff186acd820cfa08fbec96cf56fa2980c8dd38ba6719599367cf13910d1</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>32fX1K1VEC9YCj9yZbhbCbyAoWJX98gBiQ</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.00424184</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>a9140aaf920980e87f7142a2d38476c69bbf9af4e8c187</t>
         </is>
       </c>
     </row>
@@ -486,8 +858,100 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>utx</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8beadc7ad67f03281c0588ed726c9e59a6da0eea0411d8e38cf0cb9f75477772</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>224</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1677464387</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>4294967295</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1HZ2DXkXfJ8tcb9mpKENDWdaf7RSZXAmRc</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>1653915</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>76a914b59056a259aca92017d6ad7c10add33e73b5e5f588ac</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>483045022100affb78bb2f245ca3f8839d144aa2f5f5fb71b3cf11585946bc593ba95d8af91a02203a6dd718a0dc664e5c2bda7fa70efaa2f23085bae1fed3b0b89809fb00f61b5c012102ff030ff186acd820cfa08fbec96cf56fa2980c8dd38ba6719599367cf13910d1</t>
+        </is>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>1ASianzRhTUkHr4pcbsP3as53yUYv8atxy</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.01222787</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>76a91467963e16d45f1ef854558fedcdd92c0d976a652b88ac</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BTC_Transaction.xlsx
+++ b/BTC_Transaction.xlsx
@@ -1,37 +1,201 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSUF\Spring 2023\531 Adv Database\Projects\Spark-Streaming-BTC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93420E39-ADA3-4A43-84DA-E5B70FBF6F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>lock_time</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>tx_index</t>
+  </si>
+  <si>
+    <t>vin_sz</t>
+  </si>
+  <si>
+    <t>vout_sz</t>
+  </si>
+  <si>
+    <t>relayed_by</t>
+  </si>
+  <si>
+    <t>inputs.sequence</t>
+  </si>
+  <si>
+    <t>in_spent</t>
+  </si>
+  <si>
+    <t>in_tx_index</t>
+  </si>
+  <si>
+    <t>in_type</t>
+  </si>
+  <si>
+    <t>in_addr</t>
+  </si>
+  <si>
+    <t>in_value</t>
+  </si>
+  <si>
+    <t>in_n</t>
+  </si>
+  <si>
+    <t>in_script</t>
+  </si>
+  <si>
+    <t>inputs.script</t>
+  </si>
+  <si>
+    <t>out_spent</t>
+  </si>
+  <si>
+    <t>out_tx_index</t>
+  </si>
+  <si>
+    <t>out_type</t>
+  </si>
+  <si>
+    <t>out_addr</t>
+  </si>
+  <si>
+    <t>out_value</t>
+  </si>
+  <si>
+    <t>out_n</t>
+  </si>
+  <si>
+    <t>out_script</t>
+  </si>
+  <si>
+    <t>utx</t>
+  </si>
+  <si>
+    <t>c4a0dae726c6892477765a6597cf3a36918ba5302d88e63854f9988bb33519dd</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>bc1qxws7zz7lejjckkntggc0yvt7sqttjd0umsas7d</t>
+  </si>
+  <si>
+    <t>001433a1e10bdfcca58b5a6b4230f2317e8016b935fc</t>
+  </si>
+  <si>
+    <t>bc1qddv08fla39aa08f690g7hrg43jxmzc4z8jwwmw</t>
+  </si>
+  <si>
+    <t>00146b58f3a7fd897bd79d3a2bd1eb8d158c8db162a2</t>
+  </si>
+  <si>
+    <t>1D6U9ziBDC7T8DsFTUBYQ6sg1yW2D4i2qX</t>
+  </si>
+  <si>
+    <t>76a91484aa41d3d723262350ca19aeec8a490daea2162d88ac</t>
+  </si>
+  <si>
+    <t>8beadc7ad67f03281c0588ed726c9e59a6da0eea0411d8e38cf0cb9f75477772</t>
+  </si>
+  <si>
+    <t>1HZ2DXkXfJ8tcb9mpKENDWdaf7RSZXAmRc</t>
+  </si>
+  <si>
+    <t>76a914b59056a259aca92017d6ad7c10add33e73b5e5f588ac</t>
+  </si>
+  <si>
+    <t>483045022100affb78bb2f245ca3f8839d144aa2f5f5fb71b3cf11585946bc593ba95d8af91a02203a6dd718a0dc664e5c2bda7fa70efaa2f23085bae1fed3b0b89809fb00f61b5c012102ff030ff186acd820cfa08fbec96cf56fa2980c8dd38ba6719599367cf13910d1</t>
+  </si>
+  <si>
+    <t>32fX1K1VEC9YCj9yZbhbCbyAoWJX98gBiQ</t>
+  </si>
+  <si>
+    <t>a9140aaf920980e87f7142a2d38476c69bbf9af4e8c187</t>
+  </si>
+  <si>
+    <t>1ASianzRhTUkHr4pcbsP3as53yUYv8atxy</t>
+  </si>
+  <si>
+    <t>76a91467963e16d45f1ef854558fedcdd92c0d976a652b88ac</t>
+  </si>
+  <si>
+    <t>NNNNNNNNNNNNNNNNNJFFFFFFFFFFFF</t>
+  </si>
+  <si>
+    <t>tttttttz7lejjckkntggc0yvt7sqttjd0umsas7d</t>
+  </si>
+  <si>
+    <t>jjjjjjjjjj8fla39aa08f690g7hrg43jxmzc4z8jwwmw</t>
+  </si>
+  <si>
+    <t>ppppppppppC7T8DsFTUBYQ6sg1yW2D4i2qX</t>
+  </si>
+  <si>
+    <t>uuuuuuuuuuuuuuuuuibbbbbbbbbbbbb</t>
+  </si>
+  <si>
+    <t>zzzzzzzzfJ8tcb9mpKENDWdaf7RSZXAmRc</t>
+  </si>
+  <si>
+    <t>nnnnnnnnnnnVEC9YCj9yZbhbCbyAoWJX98gBiQ</t>
+  </si>
+  <si>
+    <t>tejasRhTUkHr4pcbsP3as53yUYv8atxy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +210,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,32 +534,756 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" customWidth="1"/>
+    <col min="24" max="24" width="47" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sum(out_value)</t>
-        </is>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.22816649</v>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>226</v>
+      </c>
+      <c r="G2">
+        <v>1677464386</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>4294967295</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2">
+        <v>0.21171100000000001</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2">
+        <v>1.4529780000000001E-2</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>226</v>
+      </c>
+      <c r="G3">
+        <v>1677464386</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>4294967295</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <v>0.21171100000000001</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3">
+        <v>0.19716700000000001</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>224</v>
+      </c>
+      <c r="G4">
+        <v>1677464387</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>4294967295</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4">
+        <v>1.6539149999999999E-2</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4">
+        <v>4.2418400000000002E-3</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>224</v>
+      </c>
+      <c r="G5">
+        <v>1677464387</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>4294967295</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5">
+        <v>1.6539149999999999E-2</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5">
+        <v>1.222787E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>226</v>
+      </c>
+      <c r="G6">
+        <v>1677464386</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6">
+        <v>4294967295</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6">
+        <v>0.21171100000000001</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6">
+        <v>1.4529780000000001E-2</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>226</v>
+      </c>
+      <c r="G7">
+        <v>1677464386</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7">
+        <v>4294967295</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7">
+        <v>0.21171100000000001</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7">
+        <v>0.19716700000000001</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>224</v>
+      </c>
+      <c r="G8">
+        <v>1677464387</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>4294967295</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8">
+        <v>1.6539149999999999E-2</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8">
+        <v>4.2418400000000002E-3</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>224</v>
+      </c>
+      <c r="G9">
+        <v>1677464387</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9">
+        <v>4294967295</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9">
+        <v>1.6539149999999999E-2</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9">
+        <v>1.222787E-2</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
